--- a/cwbf_checklist_bird_tw_2019_jko.xlsx
+++ b/cwbf_checklist_bird_tw_2019_jko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeromeko/Dropbox/database/00 TaiwanBirdList/REFERENCE/CWBF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675FC5F-C72F-4F43-BB59-28589DDDFB39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852B92B-7347-BD46-8F82-AFF9E213F691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="version_note" sheetId="22" r:id="rId1"/>
@@ -28650,17 +28650,6 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>綠鵙科</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>綠畫眉</t>
     </r>
   </si>
@@ -32699,7 +32688,73 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>白氏</t>
+      <t>白胸燕鵙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>白鳳頭鸚鵡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>白頭文鳥</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>白頰噪眉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>克島圓尾穴鳥</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>赤紅山椒鳥</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林鴛鴦</t>
     </r>
     <r>
       <rPr>
@@ -32707,93 +32762,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>虎斑地鶇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>白胸燕鵙</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>白鳳頭鸚鵡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>白頭文鳥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>白頰噪眉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>克島圓尾穴鳥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>赤紅山椒鳥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>林鴛鴦</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>馴化</t>
     </r>
     <r>
       <rPr>
@@ -32801,16 +32779,29 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>馴化</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>虎皮鸚鵡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>金</t>
     </r>
     <r>
       <rPr>
@@ -32818,29 +32809,159 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>虎皮鸚鵡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>金</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>赤腰燕</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非洲金織雀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紅耳鵯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紅色吸蜜鸚鵡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紅冠臘嘴鵐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紅領綠鸚鵡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紅嘴藍鵲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>烏鵑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>針尾維達雀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>彩虹吸蜜鸚鵡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>彩鸛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傑曼氏金絲燕</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>喜馬拉雅中杜鵑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>寒林</t>
     </r>
     <r>
       <rPr>
@@ -32857,150 +32978,51 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>赤腰燕</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>非洲金織雀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紅耳鵯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紅色吸蜜鸚鵡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紅冠臘嘴鵐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紅領綠鸚鵡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紅嘴藍鵲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>烏鵑</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>針尾維達雀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>彩虹吸蜜鸚鵡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>彩鸛</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>傑曼氏金絲燕</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>喜馬拉雅中杜鵑</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>寒林</t>
+      <t>凍原豆雁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>斑馬鳩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>斑椋鳥</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>斑臉海蕃鴨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番鴨</t>
     </r>
     <r>
       <rPr>
@@ -33008,60 +33030,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>凍原豆雁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>斑馬鳩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>斑椋鳥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>斑臉海蕃鴨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>番鴨</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>馴化</t>
     </r>
     <r>
       <rPr>
@@ -33069,16 +33047,40 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>馴化</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>短翅樹鶯複合種</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃爪隼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃腹</t>
     </r>
     <r>
       <rPr>
@@ -33086,40 +33088,49 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>短翅樹鶯複合種</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃爪隼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃腹</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水鷚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃額絲雀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃鶺鴒複合種</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黑天鵝</t>
     </r>
     <r>
       <rPr>
@@ -33127,49 +33138,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>水鷚</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃額絲雀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃鶺鴒複合種</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黑天鵝</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>馴化</t>
     </r>
     <r>
       <rPr>
@@ -33177,16 +33155,62 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>馴化</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黑頭織雀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>極北柳鶯複合種</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>葡萄胸椋鳥</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>葵花鳳頭鸚鵡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>綠頭鴨</t>
     </r>
     <r>
       <rPr>
@@ -33194,62 +33218,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黑頭織雀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>極北柳鶯複合種</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>葡萄胸椋鳥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>葵花鳳頭鸚鵡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>綠頭鴨</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>馴化</t>
     </r>
     <r>
       <rPr>
@@ -33257,16 +33235,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>馴化</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蒙古</t>
     </r>
     <r>
       <rPr>
@@ -33274,18 +33254,38 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蒙古</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鐵嘴鴴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蒙古百靈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>歐亞</t>
     </r>
     <r>
       <rPr>
@@ -33302,29 +33302,73 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>鐵嘴鴴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蒙古百靈</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>歐亞</t>
+      <t>小雲雀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>褐耳鷹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>褐頭鶇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>噪犀鳥</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>橫斑梅花雀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>雞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鴛鴦</t>
     </r>
     <r>
       <rPr>
@@ -33332,82 +33376,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>小雲雀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>褐耳鷹</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>褐頭鶇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>噪犀鳥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>橫斑梅花雀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>雞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鴛鴦</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>馴化</t>
     </r>
     <r>
       <rPr>
@@ -33415,16 +33393,439 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>馴化</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>雜頭翁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鵰鴞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>九官鳥</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>山羌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台灣水鹿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台灣野兔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台灣獼猴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>赤腹松鼠</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>長吻松鼠</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>長鬃山羊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>條紋松鼠</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>食蟹獴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃喉貂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翼手目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無尾目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>貢德氏赤蛙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>斯文豪氏遊蛇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未做調查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無法調查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樣點刪除</t>
+    </r>
+  </si>
+  <si>
+    <t>Red-rumped/Striated Swallow</t>
+  </si>
+  <si>
+    <t>Chinese/Taiwan Hwamei</t>
+  </si>
+  <si>
+    <t>White's/Scaly Thrush</t>
+  </si>
+  <si>
+    <t>Water/American Pipit</t>
+  </si>
+  <si>
+    <t>Eurasian/Oriental Skylark</t>
+  </si>
+  <si>
+    <t>Lesser/Greater Sand-Plover</t>
+  </si>
+  <si>
+    <t>Western/Eastern Yellow Wagtail</t>
+  </si>
+  <si>
+    <t>Japanese Leaf/Arctic/Kamchatka Leaf Warbler</t>
+  </si>
+  <si>
+    <t>Phylloscopus xanthodryas/borealis/examinandus</t>
+  </si>
+  <si>
+    <t>Japanese/Manchurian Bush Warbler</t>
+  </si>
+  <si>
+    <t>Taiga/Tundra Bean-Goose</t>
+  </si>
+  <si>
+    <t>Domestic goose sp. (Domestic type)</t>
+  </si>
+  <si>
+    <t>Cackling Goose</t>
+  </si>
+  <si>
+    <t>Muscovy Duck (Domestic type)</t>
+  </si>
+  <si>
+    <t>Mallard (Domestic type)</t>
+  </si>
+  <si>
+    <t>Velvet Scoter</t>
+  </si>
+  <si>
+    <t>Red Junglefowl (Domestic type)</t>
+  </si>
+  <si>
+    <t>Greater Flamingo</t>
+  </si>
+  <si>
+    <t>Fork-tailed Drongo-Cuckoo</t>
+  </si>
+  <si>
+    <t>small plover sp.</t>
+  </si>
+  <si>
+    <t>curlew sp.</t>
+  </si>
+  <si>
+    <t>snipe sp.</t>
+  </si>
+  <si>
+    <t>shorebird sp.</t>
+  </si>
+  <si>
+    <t>Matsudaira's Storm-Petrel</t>
+  </si>
+  <si>
+    <t>harrier sp.</t>
+  </si>
+  <si>
+    <t>Shikra</t>
+  </si>
+  <si>
+    <t>Eurasian Eagle-Owl</t>
+  </si>
+  <si>
+    <t>Trumpeter Hornbill</t>
+  </si>
+  <si>
+    <t>Lesser Kestrel</t>
+  </si>
+  <si>
+    <t>falcon sp.</t>
+  </si>
+  <si>
+    <t>diurnal raptor sp.</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>lovebird sp.</t>
+  </si>
+  <si>
+    <t>paradise-flycatcher sp.</t>
+  </si>
+  <si>
+    <t>Styan's x Light-vented Bulbul (hybrid)</t>
+  </si>
+  <si>
+    <t>bush warbler sp.</t>
+  </si>
+  <si>
+    <t>cisticola sp.</t>
+  </si>
+  <si>
+    <t>rock-thrush sp.</t>
+  </si>
+  <si>
+    <t>Scaly Thrush (Scaly)</t>
+  </si>
+  <si>
+    <t>Asian Pied Starling</t>
+  </si>
+  <si>
+    <t>Great Myna</t>
+  </si>
+  <si>
+    <t>black myna sp.</t>
+  </si>
+  <si>
+    <t>wagtail sp.</t>
+  </si>
+  <si>
+    <t>pipit sp.</t>
+  </si>
+  <si>
+    <t>Crithagra mozambica</t>
+  </si>
+  <si>
+    <t>passerine sp.</t>
+  </si>
+  <si>
+    <t>bird sp.</t>
+  </si>
+  <si>
+    <t>Psittaciformes sp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psittaciformes sp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branta hutchinsii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aix sponsa (Domestic type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Duck (Domestic type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melanitta fusca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black-necked Swan (Domestic type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aix galericulata (Domestic type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gallus gallus (Domestic type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mandarin Duck (Domestic type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viduidae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cacatuidae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ploceidae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psittacidae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保育類</t>
     </r>
     <r>
       <rPr>
@@ -33432,446 +33833,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>雜頭翁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鵰鴞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>九官鳥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>山羌</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台灣水鹿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台灣野兔</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台灣獼猴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>赤腹松鼠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長吻松鼠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長鬃山羊</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>條紋松鼠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>食蟹獴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃喉貂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>翼手目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>無尾目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>貢德氏赤蛙</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>斯文豪氏遊蛇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未做調查</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>無法調查</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樣點刪除</t>
-    </r>
-  </si>
-  <si>
-    <t>Red-rumped/Striated Swallow</t>
-  </si>
-  <si>
-    <t>Chinese/Taiwan Hwamei</t>
-  </si>
-  <si>
-    <t>White's/Scaly Thrush</t>
-  </si>
-  <si>
-    <t>Water/American Pipit</t>
-  </si>
-  <si>
-    <t>Eurasian/Oriental Skylark</t>
-  </si>
-  <si>
-    <t>Lesser/Greater Sand-Plover</t>
-  </si>
-  <si>
-    <t>Western/Eastern Yellow Wagtail</t>
-  </si>
-  <si>
-    <t>Japanese Leaf/Arctic/Kamchatka Leaf Warbler</t>
-  </si>
-  <si>
-    <t>Phylloscopus xanthodryas/borealis/examinandus</t>
-  </si>
-  <si>
-    <t>Japanese/Manchurian Bush Warbler</t>
-  </si>
-  <si>
-    <t>Taiga/Tundra Bean-Goose</t>
-  </si>
-  <si>
-    <t>Domestic goose sp. (Domestic type)</t>
-  </si>
-  <si>
-    <t>Cackling Goose</t>
-  </si>
-  <si>
-    <t>Muscovy Duck (Domestic type)</t>
-  </si>
-  <si>
-    <t>Mallard (Domestic type)</t>
-  </si>
-  <si>
-    <t>Velvet Scoter</t>
-  </si>
-  <si>
-    <t>Red Junglefowl (Domestic type)</t>
-  </si>
-  <si>
-    <t>Greater Flamingo</t>
-  </si>
-  <si>
-    <t>Fork-tailed Drongo-Cuckoo</t>
-  </si>
-  <si>
-    <t>small plover sp.</t>
-  </si>
-  <si>
-    <t>curlew sp.</t>
-  </si>
-  <si>
-    <t>snipe sp.</t>
-  </si>
-  <si>
-    <t>shorebird sp.</t>
-  </si>
-  <si>
-    <t>Matsudaira's Storm-Petrel</t>
-  </si>
-  <si>
-    <t>harrier sp.</t>
-  </si>
-  <si>
-    <t>Shikra</t>
-  </si>
-  <si>
-    <t>Eurasian Eagle-Owl</t>
-  </si>
-  <si>
-    <t>Trumpeter Hornbill</t>
-  </si>
-  <si>
-    <t>Lesser Kestrel</t>
-  </si>
-  <si>
-    <t>falcon sp.</t>
-  </si>
-  <si>
-    <t>diurnal raptor sp.</t>
-  </si>
-  <si>
-    <t>Budgerigar</t>
-  </si>
-  <si>
-    <t>lovebird sp.</t>
-  </si>
-  <si>
-    <t>paradise-flycatcher sp.</t>
-  </si>
-  <si>
-    <t>Styan's x Light-vented Bulbul (hybrid)</t>
-  </si>
-  <si>
-    <t>bush warbler sp.</t>
-  </si>
-  <si>
-    <t>cisticola sp.</t>
-  </si>
-  <si>
-    <t>rock-thrush sp.</t>
-  </si>
-  <si>
-    <t>Scaly Thrush (Scaly)</t>
-  </si>
-  <si>
-    <t>Asian Pied Starling</t>
-  </si>
-  <si>
-    <t>Great Myna</t>
-  </si>
-  <si>
-    <t>black myna sp.</t>
-  </si>
-  <si>
-    <t>wagtail sp.</t>
-  </si>
-  <si>
-    <t>pipit sp.</t>
-  </si>
-  <si>
-    <t>Crithagra mozambica</t>
-  </si>
-  <si>
-    <t>passerine sp.</t>
-  </si>
-  <si>
-    <t>bird sp.</t>
-  </si>
-  <si>
-    <t>Psittaciformes sp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psittaciformes sp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Branta hutchinsii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aix sponsa (Domestic type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood Duck (Domestic type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melanitta fusca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black-necked Swan (Domestic type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aix galericulata (Domestic type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gallus gallus (Domestic type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mandarin Duck (Domestic type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viduidae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cacatuidae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ploceidae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Psittacidae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>保育類</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>(v20190109)/</t>
     </r>
     <r>
@@ -33883,6 +33844,14 @@
       </rPr>
       <t>外來種</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎鶇複合種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠鵙科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34968,7 +34937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -63601,11 +63570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M861"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B701" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -63643,7 +63612,7 @@
         <v>3377</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
       <c r="G1" s="90" t="s">
         <v>3357</v>
@@ -72268,8 +72237,8 @@
       </c>
     </row>
     <row r="414" spans="1:13">
-      <c r="A414" s="90" t="s">
-        <v>3800</v>
+      <c r="A414" s="92" t="s">
+        <v>4288</v>
       </c>
       <c r="B414" s="90" t="s">
         <v>1926</v>
@@ -72283,7 +72252,7 @@
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="90" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="B415" s="90">
         <v>364</v>
@@ -72321,7 +72290,7 @@
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="90" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="B416" s="90" t="s">
         <v>1927</v>
@@ -72335,7 +72304,7 @@
     </row>
     <row r="417" spans="1:13">
       <c r="A417" s="90" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="B417" s="90">
         <v>365</v>
@@ -72364,7 +72333,7 @@
     </row>
     <row r="418" spans="1:13">
       <c r="A418" s="90" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="B418" s="90">
         <v>366</v>
@@ -72399,7 +72368,7 @@
     </row>
     <row r="419" spans="1:13">
       <c r="A419" s="90" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="B419" s="90" t="s">
         <v>1928</v>
@@ -72413,7 +72382,7 @@
     </row>
     <row r="420" spans="1:13">
       <c r="A420" s="90" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B420" s="90">
         <v>367</v>
@@ -72448,7 +72417,7 @@
     </row>
     <row r="421" spans="1:13">
       <c r="A421" s="90" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="B421" s="90">
         <v>368</v>
@@ -72468,7 +72437,7 @@
     </row>
     <row r="422" spans="1:13">
       <c r="A422" s="90" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B422" s="90">
         <v>369</v>
@@ -72485,7 +72454,7 @@
     </row>
     <row r="423" spans="1:13">
       <c r="A423" s="90" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="B423" s="90">
         <v>370</v>
@@ -72520,7 +72489,7 @@
     </row>
     <row r="424" spans="1:13">
       <c r="A424" s="90" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B424" s="90">
         <v>371</v>
@@ -72537,7 +72506,7 @@
     </row>
     <row r="425" spans="1:13">
       <c r="A425" s="90" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B425" s="90" t="s">
         <v>1929</v>
@@ -72551,7 +72520,7 @@
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="90" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="B426" s="90">
         <v>372</v>
@@ -72586,7 +72555,7 @@
     </row>
     <row r="427" spans="1:13">
       <c r="A427" s="90" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="B427" s="90">
         <v>373</v>
@@ -72612,7 +72581,7 @@
     </row>
     <row r="428" spans="1:13">
       <c r="A428" s="90" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B428" s="90">
         <v>374</v>
@@ -72629,7 +72598,7 @@
     </row>
     <row r="429" spans="1:13">
       <c r="A429" s="90" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B429" s="90" t="s">
         <v>1930</v>
@@ -72643,7 +72612,7 @@
     </row>
     <row r="430" spans="1:13">
       <c r="A430" s="90" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="B430" s="90">
         <v>375</v>
@@ -72672,7 +72641,7 @@
     </row>
     <row r="431" spans="1:13">
       <c r="A431" s="90" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="B431" s="90">
         <v>376</v>
@@ -72695,7 +72664,7 @@
     </row>
     <row r="432" spans="1:13">
       <c r="A432" s="90" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="B432" s="90">
         <v>377</v>
@@ -72730,7 +72699,7 @@
     </row>
     <row r="433" spans="1:13">
       <c r="A433" s="90" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="B433" s="90">
         <v>378</v>
@@ -72768,7 +72737,7 @@
     </row>
     <row r="434" spans="1:13">
       <c r="A434" s="90" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="B434" s="90">
         <v>379</v>
@@ -72797,7 +72766,7 @@
     </row>
     <row r="435" spans="1:13">
       <c r="A435" s="90" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="B435" s="90">
         <v>380</v>
@@ -72826,7 +72795,7 @@
     </row>
     <row r="436" spans="1:13">
       <c r="A436" s="90" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="B436" s="90">
         <v>381</v>
@@ -72843,7 +72812,7 @@
     </row>
     <row r="437" spans="1:13">
       <c r="A437" s="90" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="B437" s="90">
         <v>382</v>
@@ -72860,7 +72829,7 @@
     </row>
     <row r="438" spans="1:13">
       <c r="A438" s="90" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="B438" s="90">
         <v>383</v>
@@ -72880,7 +72849,7 @@
     </row>
     <row r="439" spans="1:13">
       <c r="A439" s="90" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="B439" s="90">
         <v>384</v>
@@ -72897,7 +72866,7 @@
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="90" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="B440" s="90">
         <v>385</v>
@@ -72935,7 +72904,7 @@
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="90" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="B441" s="90">
         <v>386</v>
@@ -72955,7 +72924,7 @@
     </row>
     <row r="442" spans="1:13">
       <c r="A442" s="90" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="B442" s="90" t="s">
         <v>1931</v>
@@ -72969,7 +72938,7 @@
     </row>
     <row r="443" spans="1:13">
       <c r="A443" s="90" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="B443" s="90">
         <v>387</v>
@@ -72986,7 +72955,7 @@
     </row>
     <row r="444" spans="1:13">
       <c r="A444" s="90" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B444" s="90">
         <v>388</v>
@@ -73003,7 +72972,7 @@
     </row>
     <row r="445" spans="1:13">
       <c r="A445" s="90" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="B445" s="90">
         <v>389</v>
@@ -73023,7 +72992,7 @@
     </row>
     <row r="446" spans="1:13">
       <c r="A446" s="90" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="B446" s="90">
         <v>390</v>
@@ -73052,7 +73021,7 @@
     </row>
     <row r="447" spans="1:13">
       <c r="A447" s="90" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="B447" s="90" t="s">
         <v>1932</v>
@@ -73066,7 +73035,7 @@
     </row>
     <row r="448" spans="1:13">
       <c r="A448" s="90" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="B448" s="90">
         <v>391</v>
@@ -73098,7 +73067,7 @@
     </row>
     <row r="449" spans="1:13">
       <c r="A449" s="90" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B449" s="90">
         <v>392</v>
@@ -73115,7 +73084,7 @@
     </row>
     <row r="450" spans="1:13">
       <c r="A450" s="90" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="B450" s="90">
         <v>393</v>
@@ -73150,7 +73119,7 @@
     </row>
     <row r="451" spans="1:13">
       <c r="A451" s="90" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B451" s="90">
         <v>394</v>
@@ -73185,7 +73154,7 @@
     </row>
     <row r="452" spans="1:13">
       <c r="A452" s="90" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="B452" s="90">
         <v>395</v>
@@ -73205,7 +73174,7 @@
     </row>
     <row r="453" spans="1:13">
       <c r="A453" s="90" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="B453" s="90">
         <v>396</v>
@@ -73234,7 +73203,7 @@
     </row>
     <row r="454" spans="1:13">
       <c r="A454" s="90" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B454" s="90">
         <v>397</v>
@@ -73251,7 +73220,7 @@
     </row>
     <row r="455" spans="1:13">
       <c r="A455" s="90" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B455" s="90">
         <v>398</v>
@@ -73280,7 +73249,7 @@
     </row>
     <row r="456" spans="1:13">
       <c r="A456" s="90" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="B456" s="90" t="s">
         <v>1933</v>
@@ -73294,7 +73263,7 @@
     </row>
     <row r="457" spans="1:13">
       <c r="A457" s="90" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="B457" s="90">
         <v>399</v>
@@ -73311,7 +73280,7 @@
     </row>
     <row r="458" spans="1:13">
       <c r="A458" s="90" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="B458" s="90" t="s">
         <v>1934</v>
@@ -73325,7 +73294,7 @@
     </row>
     <row r="459" spans="1:13">
       <c r="A459" s="90" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="B459" s="90">
         <v>400</v>
@@ -73357,7 +73326,7 @@
     </row>
     <row r="460" spans="1:13">
       <c r="A460" s="90" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="B460" s="90">
         <v>401</v>
@@ -73374,7 +73343,7 @@
     </row>
     <row r="461" spans="1:13">
       <c r="A461" s="90" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="B461" s="90">
         <v>402</v>
@@ -73391,7 +73360,7 @@
     </row>
     <row r="462" spans="1:13">
       <c r="A462" s="90" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="B462" s="90">
         <v>403</v>
@@ -73420,7 +73389,7 @@
     </row>
     <row r="463" spans="1:13">
       <c r="A463" s="90" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="B463" s="90">
         <v>404</v>
@@ -73440,7 +73409,7 @@
     </row>
     <row r="464" spans="1:13">
       <c r="A464" s="90" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="B464" s="90">
         <v>405</v>
@@ -73472,7 +73441,7 @@
     </row>
     <row r="465" spans="1:13">
       <c r="A465" s="90" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="B465" s="90">
         <v>406</v>
@@ -73504,7 +73473,7 @@
     </row>
     <row r="466" spans="1:13">
       <c r="A466" s="90" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B466" s="90" t="s">
         <v>1935</v>
@@ -73518,7 +73487,7 @@
     </row>
     <row r="467" spans="1:13">
       <c r="A467" s="90" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B467" s="90">
         <v>407</v>
@@ -73535,7 +73504,7 @@
     </row>
     <row r="468" spans="1:13">
       <c r="A468" s="90" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="B468" s="90" t="s">
         <v>1936</v>
@@ -73549,7 +73518,7 @@
     </row>
     <row r="469" spans="1:13">
       <c r="A469" s="90" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="B469" s="90">
         <v>408</v>
@@ -73578,7 +73547,7 @@
     </row>
     <row r="470" spans="1:13">
       <c r="A470" s="90" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B470" s="90" t="s">
         <v>1937</v>
@@ -73592,7 +73561,7 @@
     </row>
     <row r="471" spans="1:13">
       <c r="A471" s="90" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="B471" s="90">
         <v>409</v>
@@ -73621,7 +73590,7 @@
     </row>
     <row r="472" spans="1:13">
       <c r="A472" s="90" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="B472" s="90" t="s">
         <v>1938</v>
@@ -73635,7 +73604,7 @@
     </row>
     <row r="473" spans="1:13">
       <c r="A473" s="90" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="B473" s="90">
         <v>410</v>
@@ -73661,7 +73630,7 @@
     </row>
     <row r="474" spans="1:13">
       <c r="A474" s="90" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="B474" s="90" t="s">
         <v>1939</v>
@@ -73675,7 +73644,7 @@
     </row>
     <row r="475" spans="1:13">
       <c r="A475" s="90" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B475" s="90">
         <v>411</v>
@@ -73701,7 +73670,7 @@
     </row>
     <row r="476" spans="1:13">
       <c r="A476" s="90" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B476" s="90" t="s">
         <v>1940</v>
@@ -73715,7 +73684,7 @@
     </row>
     <row r="477" spans="1:13">
       <c r="A477" s="90" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B477" s="90">
         <v>412</v>
@@ -73744,7 +73713,7 @@
     </row>
     <row r="478" spans="1:13">
       <c r="A478" s="90" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B478" s="90">
         <v>413</v>
@@ -73776,7 +73745,7 @@
     </row>
     <row r="479" spans="1:13">
       <c r="A479" s="90" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="B479" s="90">
         <v>414</v>
@@ -73808,7 +73777,7 @@
     </row>
     <row r="480" spans="1:13">
       <c r="A480" s="90" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="B480" s="90">
         <v>415</v>
@@ -73825,7 +73794,7 @@
     </row>
     <row r="481" spans="1:13">
       <c r="A481" s="90" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="B481" s="90">
         <v>416</v>
@@ -73863,7 +73832,7 @@
     </row>
     <row r="482" spans="1:13">
       <c r="A482" s="90" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="B482" s="90">
         <v>417</v>
@@ -73886,7 +73855,7 @@
     </row>
     <row r="483" spans="1:13">
       <c r="A483" s="90" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="B483" s="90">
         <v>418</v>
@@ -73903,7 +73872,7 @@
     </row>
     <row r="484" spans="1:13">
       <c r="A484" s="90" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="B484" s="90" t="s">
         <v>1941</v>
@@ -73917,7 +73886,7 @@
     </row>
     <row r="485" spans="1:13">
       <c r="A485" s="90" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="B485" s="90">
         <v>419</v>
@@ -73937,7 +73906,7 @@
     </row>
     <row r="486" spans="1:13">
       <c r="A486" s="90" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="B486" s="90">
         <v>420</v>
@@ -73969,7 +73938,7 @@
     </row>
     <row r="487" spans="1:13">
       <c r="A487" s="90" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="B487" s="90" t="s">
         <v>1942</v>
@@ -73983,7 +73952,7 @@
     </row>
     <row r="488" spans="1:13">
       <c r="A488" s="90" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="B488" s="90">
         <v>421</v>
@@ -74012,7 +73981,7 @@
     </row>
     <row r="489" spans="1:13">
       <c r="A489" s="90" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="B489" s="90" t="s">
         <v>1943</v>
@@ -74026,7 +73995,7 @@
     </row>
     <row r="490" spans="1:13">
       <c r="A490" s="90" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B490" s="90">
         <v>422</v>
@@ -74046,7 +74015,7 @@
     </row>
     <row r="491" spans="1:13">
       <c r="A491" s="90" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B491" s="90">
         <v>423</v>
@@ -74078,7 +74047,7 @@
     </row>
     <row r="492" spans="1:13">
       <c r="A492" s="90" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B492" s="90">
         <v>424</v>
@@ -74098,7 +74067,7 @@
     </row>
     <row r="493" spans="1:13">
       <c r="A493" s="90" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="B493" s="90">
         <v>425</v>
@@ -74118,7 +74087,7 @@
     </row>
     <row r="494" spans="1:13">
       <c r="A494" s="90" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="B494" s="90">
         <v>426</v>
@@ -74147,7 +74116,7 @@
     </row>
     <row r="495" spans="1:13">
       <c r="A495" s="90" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="B495" s="90">
         <v>427</v>
@@ -74176,7 +74145,7 @@
     </row>
     <row r="496" spans="1:13">
       <c r="A496" s="90" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="B496" s="90" t="s">
         <v>1944</v>
@@ -74190,7 +74159,7 @@
     </row>
     <row r="497" spans="1:12">
       <c r="A497" s="90" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="B497" s="90">
         <v>428</v>
@@ -74207,7 +74176,7 @@
     </row>
     <row r="498" spans="1:12">
       <c r="A498" s="90" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="B498" s="90">
         <v>429</v>
@@ -74224,7 +74193,7 @@
     </row>
     <row r="499" spans="1:12">
       <c r="A499" s="90" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="B499" s="90">
         <v>430</v>
@@ -74241,7 +74210,7 @@
     </row>
     <row r="500" spans="1:12">
       <c r="A500" s="90" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="B500" s="90">
         <v>431</v>
@@ -74261,7 +74230,7 @@
     </row>
     <row r="501" spans="1:12">
       <c r="A501" s="90" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="B501" s="90">
         <v>432</v>
@@ -74278,7 +74247,7 @@
     </row>
     <row r="502" spans="1:12">
       <c r="A502" s="90" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="B502" s="90">
         <v>433</v>
@@ -74295,7 +74264,7 @@
     </row>
     <row r="503" spans="1:12">
       <c r="A503" s="90" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="B503" s="90">
         <v>434</v>
@@ -74312,7 +74281,7 @@
     </row>
     <row r="504" spans="1:12">
       <c r="A504" s="90" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="B504" s="90">
         <v>435</v>
@@ -74329,7 +74298,7 @@
     </row>
     <row r="505" spans="1:12">
       <c r="A505" s="90" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="B505" s="90">
         <v>436</v>
@@ -74349,7 +74318,7 @@
     </row>
     <row r="506" spans="1:12">
       <c r="A506" s="90" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="B506" s="90">
         <v>437</v>
@@ -74366,7 +74335,7 @@
     </row>
     <row r="507" spans="1:12">
       <c r="A507" s="90" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="B507" s="90">
         <v>438</v>
@@ -74392,7 +74361,7 @@
     </row>
     <row r="508" spans="1:12">
       <c r="A508" s="90" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="B508" s="90">
         <v>439</v>
@@ -74409,7 +74378,7 @@
     </row>
     <row r="509" spans="1:12">
       <c r="A509" s="90" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="B509" s="90">
         <v>440</v>
@@ -74429,7 +74398,7 @@
     </row>
     <row r="510" spans="1:12">
       <c r="A510" s="90" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="B510" s="90">
         <v>441</v>
@@ -74446,7 +74415,7 @@
     </row>
     <row r="511" spans="1:12">
       <c r="A511" s="90" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B511" s="90">
         <v>442</v>
@@ -74463,7 +74432,7 @@
     </row>
     <row r="512" spans="1:12">
       <c r="A512" s="90" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="B512" s="90">
         <v>443</v>
@@ -74480,7 +74449,7 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="90" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B513" s="90">
         <v>444</v>
@@ -74497,7 +74466,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="90" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="B514" s="90">
         <v>445</v>
@@ -74514,7 +74483,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="90" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="B515" s="90">
         <v>446</v>
@@ -74531,7 +74500,7 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="90" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="B516" s="90">
         <v>447</v>
@@ -74548,7 +74517,7 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="90" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="B517" s="90">
         <v>448</v>
@@ -74568,7 +74537,7 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="90" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="B518" s="90">
         <v>449</v>
@@ -74585,7 +74554,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="90" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="B519" s="90">
         <v>450</v>
@@ -74602,7 +74571,7 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520" s="90" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="B520" s="90">
         <v>451</v>
@@ -74619,7 +74588,7 @@
     </row>
     <row r="521" spans="1:7">
       <c r="A521" s="90" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="B521" s="90">
         <v>452</v>
@@ -74653,7 +74622,7 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" s="90" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="B523" s="90">
         <v>454</v>
@@ -74687,7 +74656,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="A525" s="90" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="B525" s="90" t="s">
         <v>1945</v>
@@ -74701,7 +74670,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="A526" s="90" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="B526" s="90">
         <v>456</v>
@@ -74735,7 +74704,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="90" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="B528" s="90">
         <v>458</v>
@@ -74755,7 +74724,7 @@
     </row>
     <row r="529" spans="1:13">
       <c r="A529" s="90" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="B529" s="90">
         <v>459</v>
@@ -74772,7 +74741,7 @@
     </row>
     <row r="530" spans="1:13">
       <c r="A530" s="90" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B530" s="90">
         <v>460</v>
@@ -74789,7 +74758,7 @@
     </row>
     <row r="531" spans="1:13">
       <c r="A531" s="90" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="B531" s="90">
         <v>461</v>
@@ -74806,7 +74775,7 @@
     </row>
     <row r="532" spans="1:13">
       <c r="A532" s="90" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="B532" s="90">
         <v>462</v>
@@ -74823,7 +74792,7 @@
     </row>
     <row r="533" spans="1:13">
       <c r="A533" s="90" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="B533" s="90">
         <v>463</v>
@@ -74843,7 +74812,7 @@
     </row>
     <row r="534" spans="1:13">
       <c r="A534" s="90" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="B534" s="90" t="s">
         <v>1946</v>
@@ -74857,7 +74826,7 @@
     </row>
     <row r="535" spans="1:13">
       <c r="A535" s="90" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="B535" s="90">
         <v>464</v>
@@ -74874,7 +74843,7 @@
     </row>
     <row r="536" spans="1:13">
       <c r="A536" s="90" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B536" s="90">
         <v>465</v>
@@ -74891,7 +74860,7 @@
     </row>
     <row r="537" spans="1:13">
       <c r="A537" s="90" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="B537" s="90">
         <v>466</v>
@@ -74908,7 +74877,7 @@
     </row>
     <row r="538" spans="1:13">
       <c r="A538" s="90" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="B538" s="90">
         <v>467</v>
@@ -74928,7 +74897,7 @@
     </row>
     <row r="539" spans="1:13">
       <c r="A539" s="90" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B539" s="90">
         <v>468</v>
@@ -74962,7 +74931,7 @@
     </row>
     <row r="541" spans="1:13">
       <c r="A541" s="90" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B541" s="90">
         <v>470</v>
@@ -74991,7 +74960,7 @@
     </row>
     <row r="542" spans="1:13">
       <c r="A542" s="90" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="B542" s="90" t="s">
         <v>1947</v>
@@ -75005,7 +74974,7 @@
     </row>
     <row r="543" spans="1:13">
       <c r="A543" s="90" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="B543" s="90">
         <v>471</v>
@@ -75034,7 +75003,7 @@
     </row>
     <row r="544" spans="1:13">
       <c r="A544" s="90" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="B544" s="90">
         <v>472</v>
@@ -75063,7 +75032,7 @@
     </row>
     <row r="545" spans="1:13">
       <c r="A545" s="90" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="B545" s="90">
         <v>473</v>
@@ -75092,7 +75061,7 @@
     </row>
     <row r="546" spans="1:13">
       <c r="A546" s="90" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="B546" s="90">
         <v>474</v>
@@ -75127,7 +75096,7 @@
     </row>
     <row r="547" spans="1:13">
       <c r="A547" s="90" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="B547" s="90">
         <v>475</v>
@@ -75162,7 +75131,7 @@
     </row>
     <row r="548" spans="1:13">
       <c r="A548" s="90" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="B548" s="90" t="s">
         <v>1948</v>
@@ -75176,7 +75145,7 @@
     </row>
     <row r="549" spans="1:13">
       <c r="A549" s="90" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="B549" s="90">
         <v>476</v>
@@ -75193,7 +75162,7 @@
     </row>
     <row r="550" spans="1:13">
       <c r="A550" s="90" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="B550" s="90">
         <v>477</v>
@@ -75210,7 +75179,7 @@
     </row>
     <row r="551" spans="1:13">
       <c r="A551" s="90" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="B551" s="90" t="s">
         <v>1949</v>
@@ -75224,7 +75193,7 @@
     </row>
     <row r="552" spans="1:13">
       <c r="A552" s="90" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="B552" s="90">
         <v>478</v>
@@ -75253,7 +75222,7 @@
     </row>
     <row r="553" spans="1:13">
       <c r="A553" s="90" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="B553" s="90">
         <v>479</v>
@@ -75285,7 +75254,7 @@
     </row>
     <row r="554" spans="1:13">
       <c r="A554" s="90" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="B554" s="90">
         <v>480</v>
@@ -75311,7 +75280,7 @@
     </row>
     <row r="555" spans="1:13">
       <c r="A555" s="90" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="B555" s="90" t="s">
         <v>1950</v>
@@ -75325,7 +75294,7 @@
     </row>
     <row r="556" spans="1:13">
       <c r="A556" s="90" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="B556" s="90">
         <v>481</v>
@@ -75342,7 +75311,7 @@
     </row>
     <row r="557" spans="1:13">
       <c r="A557" s="90" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="B557" s="90">
         <v>482</v>
@@ -75374,7 +75343,7 @@
     </row>
     <row r="558" spans="1:13">
       <c r="A558" s="90" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="B558" s="90">
         <v>483</v>
@@ -75391,7 +75360,7 @@
     </row>
     <row r="559" spans="1:13">
       <c r="A559" s="90" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="B559" s="90">
         <v>484</v>
@@ -75429,7 +75398,7 @@
     </row>
     <row r="560" spans="1:13">
       <c r="A560" s="90" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="B560" s="90">
         <v>485</v>
@@ -75452,7 +75421,7 @@
     </row>
     <row r="561" spans="1:13">
       <c r="A561" s="90" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="B561" s="90" t="s">
         <v>1951</v>
@@ -75580,7 +75549,7 @@
     </row>
     <row r="565" spans="1:13">
       <c r="A565" s="90" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="B565" s="90" t="s">
         <v>1952</v>
@@ -75632,7 +75601,7 @@
     </row>
     <row r="567" spans="1:13">
       <c r="A567" s="90" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="B567" s="90" t="s">
         <v>1953</v>
@@ -75684,7 +75653,7 @@
     </row>
     <row r="569" spans="1:13">
       <c r="A569" s="90" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="B569" s="90">
         <v>491</v>
@@ -75727,7 +75696,7 @@
     </row>
     <row r="571" spans="1:13">
       <c r="A571" s="90" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="B571" s="90">
         <v>493</v>
@@ -75756,7 +75725,7 @@
     </row>
     <row r="572" spans="1:13">
       <c r="A572" s="90" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="B572" s="90">
         <v>494</v>
@@ -75808,7 +75777,7 @@
     </row>
     <row r="574" spans="1:13">
       <c r="A574" s="90" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="B574" s="90">
         <v>496</v>
@@ -75840,7 +75809,7 @@
     </row>
     <row r="575" spans="1:13">
       <c r="A575" s="90" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="B575" s="90">
         <v>497</v>
@@ -75910,7 +75879,7 @@
     </row>
     <row r="577" spans="1:13">
       <c r="A577" s="90" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="B577" s="90">
         <v>499</v>
@@ -75974,7 +75943,7 @@
     </row>
     <row r="579" spans="1:13">
       <c r="A579" s="90" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="B579" s="90" t="s">
         <v>1954</v>
@@ -75988,7 +75957,7 @@
     </row>
     <row r="580" spans="1:13">
       <c r="A580" s="90" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="B580" s="90">
         <v>501</v>
@@ -76005,7 +75974,7 @@
     </row>
     <row r="581" spans="1:13">
       <c r="A581" s="90" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="B581" s="90">
         <v>502</v>
@@ -76022,7 +75991,7 @@
     </row>
     <row r="582" spans="1:13">
       <c r="A582" s="90" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="B582" s="90">
         <v>503</v>
@@ -76039,7 +76008,7 @@
     </row>
     <row r="583" spans="1:13">
       <c r="A583" s="90" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B583" s="90">
         <v>504</v>
@@ -76068,7 +76037,7 @@
     </row>
     <row r="584" spans="1:13">
       <c r="A584" s="90" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="B584" s="90">
         <v>505</v>
@@ -76088,7 +76057,7 @@
     </row>
     <row r="585" spans="1:13">
       <c r="A585" s="90" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="B585" s="90">
         <v>506</v>
@@ -76105,7 +76074,7 @@
     </row>
     <row r="586" spans="1:13">
       <c r="A586" s="90" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="B586" s="90">
         <v>507</v>
@@ -76154,7 +76123,7 @@
     </row>
     <row r="588" spans="1:13">
       <c r="A588" s="90" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="B588" s="90">
         <v>509</v>
@@ -76171,7 +76140,7 @@
     </row>
     <row r="589" spans="1:13">
       <c r="A589" s="90" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B589" s="90">
         <v>510</v>
@@ -76188,7 +76157,7 @@
     </row>
     <row r="590" spans="1:13">
       <c r="A590" s="90" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="B590" s="90">
         <v>511</v>
@@ -76205,7 +76174,7 @@
     </row>
     <row r="591" spans="1:13">
       <c r="A591" s="90" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="B591" s="90">
         <v>512</v>
@@ -76222,7 +76191,7 @@
     </row>
     <row r="592" spans="1:13">
       <c r="A592" s="90" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="B592" s="90">
         <v>513</v>
@@ -76254,7 +76223,7 @@
     </row>
     <row r="593" spans="1:13">
       <c r="A593" s="90" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="B593" s="90">
         <v>514</v>
@@ -76271,7 +76240,7 @@
     </row>
     <row r="594" spans="1:13">
       <c r="A594" s="90" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="B594" s="90">
         <v>515</v>
@@ -76288,7 +76257,7 @@
     </row>
     <row r="595" spans="1:13">
       <c r="A595" s="90" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="B595" s="90">
         <v>516</v>
@@ -76308,7 +76277,7 @@
     </row>
     <row r="596" spans="1:13">
       <c r="A596" s="90" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="B596" s="90">
         <v>517</v>
@@ -76325,7 +76294,7 @@
     </row>
     <row r="597" spans="1:13">
       <c r="A597" s="90" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="B597" s="90">
         <v>518</v>
@@ -76354,7 +76323,7 @@
     </row>
     <row r="598" spans="1:13">
       <c r="A598" s="90" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="B598" s="90">
         <v>519</v>
@@ -76371,7 +76340,7 @@
     </row>
     <row r="599" spans="1:13">
       <c r="A599" s="90" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="B599" s="90">
         <v>520</v>
@@ -76391,7 +76360,7 @@
     </row>
     <row r="600" spans="1:13">
       <c r="A600" s="90" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="B600" s="90">
         <v>521</v>
@@ -76408,7 +76377,7 @@
     </row>
     <row r="601" spans="1:13">
       <c r="A601" s="90" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="B601" s="90">
         <v>522</v>
@@ -76425,7 +76394,7 @@
     </row>
     <row r="602" spans="1:13">
       <c r="A602" s="90" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="B602" s="90">
         <v>523</v>
@@ -76445,7 +76414,7 @@
     </row>
     <row r="603" spans="1:13">
       <c r="A603" s="90" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="B603" s="90">
         <v>524</v>
@@ -76483,7 +76452,7 @@
     </row>
     <row r="604" spans="1:13">
       <c r="A604" s="90" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="B604" s="90">
         <v>525</v>
@@ -76503,7 +76472,7 @@
     </row>
     <row r="605" spans="1:13">
       <c r="A605" s="90" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="B605" s="90">
         <v>526</v>
@@ -76532,7 +76501,7 @@
     </row>
     <row r="606" spans="1:13">
       <c r="A606" s="90" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="B606" s="90">
         <v>527</v>
@@ -76555,7 +76524,7 @@
     </row>
     <row r="607" spans="1:13">
       <c r="A607" s="90" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="B607" s="90">
         <v>528</v>
@@ -76590,7 +76559,7 @@
     </row>
     <row r="608" spans="1:13">
       <c r="A608" s="90" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="B608" s="90">
         <v>529</v>
@@ -76610,7 +76579,7 @@
     </row>
     <row r="609" spans="1:13">
       <c r="A609" s="90" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="B609" s="90">
         <v>530</v>
@@ -76639,7 +76608,7 @@
     </row>
     <row r="610" spans="1:13">
       <c r="A610" s="90" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="B610" s="90">
         <v>531</v>
@@ -76668,7 +76637,7 @@
     </row>
     <row r="611" spans="1:13">
       <c r="A611" s="90" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="B611" s="90">
         <v>532</v>
@@ -76685,7 +76654,7 @@
     </row>
     <row r="612" spans="1:13">
       <c r="A612" s="90" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="B612" s="90">
         <v>533</v>
@@ -76702,7 +76671,7 @@
     </row>
     <row r="613" spans="1:13">
       <c r="A613" s="90" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="B613" s="90">
         <v>534</v>
@@ -76719,7 +76688,7 @@
     </row>
     <row r="614" spans="1:13">
       <c r="A614" s="90" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="B614" s="90">
         <v>535</v>
@@ -76756,7 +76725,7 @@
     </row>
     <row r="616" spans="1:13">
       <c r="A616" s="90" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="B616" s="90">
         <v>537</v>
@@ -76785,7 +76754,7 @@
     </row>
     <row r="617" spans="1:13">
       <c r="A617" s="90" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="B617" s="90">
         <v>538</v>
@@ -76802,7 +76771,7 @@
     </row>
     <row r="618" spans="1:13">
       <c r="A618" s="90" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="B618" s="90">
         <v>539</v>
@@ -76822,7 +76791,7 @@
     </row>
     <row r="619" spans="1:13">
       <c r="A619" s="90" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B619" s="90">
         <v>540</v>
@@ -76842,7 +76811,7 @@
     </row>
     <row r="620" spans="1:13">
       <c r="A620" s="90" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B620" s="90">
         <v>541</v>
@@ -76859,7 +76828,7 @@
     </row>
     <row r="621" spans="1:13">
       <c r="A621" s="90" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B621" s="90">
         <v>542</v>
@@ -76891,7 +76860,7 @@
     </row>
     <row r="622" spans="1:13">
       <c r="A622" s="90" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="B622" s="90">
         <v>543</v>
@@ -76908,7 +76877,7 @@
     </row>
     <row r="623" spans="1:13">
       <c r="A623" s="90" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="B623" s="90">
         <v>544</v>
@@ -76925,7 +76894,7 @@
     </row>
     <row r="624" spans="1:13">
       <c r="A624" s="90" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="B624" s="90">
         <v>545</v>
@@ -76954,7 +76923,7 @@
     </row>
     <row r="625" spans="1:12">
       <c r="A625" s="90" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B625" s="90">
         <v>546</v>
@@ -76971,7 +76940,7 @@
     </row>
     <row r="626" spans="1:12">
       <c r="A626" s="90" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B626" s="90">
         <v>547</v>
@@ -77006,7 +76975,7 @@
     </row>
     <row r="627" spans="1:12">
       <c r="A627" s="90" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B627" s="90">
         <v>548</v>
@@ -77026,7 +76995,7 @@
     </row>
     <row r="628" spans="1:12">
       <c r="A628" s="90" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B628" s="90">
         <v>549</v>
@@ -77043,7 +77012,7 @@
     </row>
     <row r="629" spans="1:12">
       <c r="A629" s="90" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="B629" s="90">
         <v>550</v>
@@ -77060,7 +77029,7 @@
     </row>
     <row r="630" spans="1:12">
       <c r="A630" s="90" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="B630" s="90">
         <v>551</v>
@@ -77077,7 +77046,7 @@
     </row>
     <row r="631" spans="1:12">
       <c r="A631" s="90" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B631" s="90">
         <v>552</v>
@@ -77094,7 +77063,7 @@
     </row>
     <row r="632" spans="1:12">
       <c r="A632" s="90" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B632" s="90">
         <v>553</v>
@@ -77111,7 +77080,7 @@
     </row>
     <row r="633" spans="1:12">
       <c r="A633" s="90" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B633" s="90">
         <v>554</v>
@@ -77128,7 +77097,7 @@
     </row>
     <row r="634" spans="1:12">
       <c r="A634" s="90" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B634" s="90" t="s">
         <v>1955</v>
@@ -77142,7 +77111,7 @@
     </row>
     <row r="635" spans="1:12">
       <c r="A635" s="90" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B635" s="90">
         <v>555</v>
@@ -77159,7 +77128,7 @@
     </row>
     <row r="636" spans="1:12">
       <c r="A636" s="90" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B636" s="90">
         <v>556</v>
@@ -77176,7 +77145,7 @@
     </row>
     <row r="637" spans="1:12">
       <c r="A637" s="90" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B637" s="90">
         <v>557</v>
@@ -77196,7 +77165,7 @@
     </row>
     <row r="638" spans="1:12">
       <c r="A638" s="90" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B638" s="90">
         <v>558</v>
@@ -77222,7 +77191,7 @@
     </row>
     <row r="639" spans="1:12">
       <c r="A639" s="90" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B639" s="90">
         <v>559</v>
@@ -77239,7 +77208,7 @@
     </row>
     <row r="640" spans="1:12">
       <c r="A640" s="90" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B640" s="90">
         <v>560</v>
@@ -77256,7 +77225,7 @@
     </row>
     <row r="641" spans="1:12">
       <c r="A641" s="90" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B641" s="90">
         <v>561</v>
@@ -77282,7 +77251,7 @@
     </row>
     <row r="642" spans="1:12">
       <c r="A642" s="90" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B642" s="90">
         <v>562</v>
@@ -77311,7 +77280,7 @@
     </row>
     <row r="643" spans="1:12">
       <c r="A643" s="90" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B643" s="90">
         <v>563</v>
@@ -77331,7 +77300,7 @@
     </row>
     <row r="644" spans="1:12">
       <c r="A644" s="90" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B644" s="90">
         <v>564</v>
@@ -77360,7 +77329,7 @@
     </row>
     <row r="645" spans="1:12">
       <c r="A645" s="90" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="B645" s="90">
         <v>565</v>
@@ -77386,7 +77355,7 @@
     </row>
     <row r="646" spans="1:12">
       <c r="A646" s="90" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="B646" s="90">
         <v>566</v>
@@ -77403,7 +77372,7 @@
     </row>
     <row r="647" spans="1:12">
       <c r="A647" s="90" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="B647" s="90">
         <v>567</v>
@@ -77420,7 +77389,7 @@
     </row>
     <row r="648" spans="1:12">
       <c r="A648" s="90" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="B648" s="90">
         <v>568</v>
@@ -77440,7 +77409,7 @@
     </row>
     <row r="649" spans="1:12">
       <c r="A649" s="90" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="B649" s="90">
         <v>569</v>
@@ -77460,7 +77429,7 @@
     </row>
     <row r="650" spans="1:12">
       <c r="A650" s="90" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="B650" s="90">
         <v>570</v>
@@ -77477,7 +77446,7 @@
     </row>
     <row r="651" spans="1:12">
       <c r="A651" s="90" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="B651" s="90" t="s">
         <v>1956</v>
@@ -77491,7 +77460,7 @@
     </row>
     <row r="652" spans="1:12">
       <c r="A652" s="90" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="B652" s="90">
         <v>571</v>
@@ -77514,7 +77483,7 @@
     </row>
     <row r="653" spans="1:12">
       <c r="A653" s="90" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="B653" s="90">
         <v>572</v>
@@ -77534,7 +77503,7 @@
     </row>
     <row r="654" spans="1:12">
       <c r="A654" s="90" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="B654" s="90">
         <v>573</v>
@@ -77551,7 +77520,7 @@
     </row>
     <row r="655" spans="1:12">
       <c r="A655" s="90" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="B655" s="90">
         <v>574</v>
@@ -77568,7 +77537,7 @@
     </row>
     <row r="656" spans="1:12">
       <c r="A656" s="90" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="B656" s="90">
         <v>575</v>
@@ -77585,7 +77554,7 @@
     </row>
     <row r="657" spans="1:13">
       <c r="A657" s="90" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B657" s="90">
         <v>576</v>
@@ -77611,7 +77580,7 @@
     </row>
     <row r="658" spans="1:13">
       <c r="A658" s="90" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="B658" s="90">
         <v>577</v>
@@ -77631,7 +77600,7 @@
     </row>
     <row r="659" spans="1:13">
       <c r="A659" s="90" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="B659" s="90">
         <v>578</v>
@@ -77657,7 +77626,7 @@
     </row>
     <row r="660" spans="1:13">
       <c r="A660" s="90" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="B660" s="90">
         <v>579</v>
@@ -77677,7 +77646,7 @@
     </row>
     <row r="661" spans="1:13">
       <c r="A661" s="90" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="B661" s="90">
         <v>580</v>
@@ -77703,7 +77672,7 @@
     </row>
     <row r="662" spans="1:13">
       <c r="A662" s="90" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="B662" s="90">
         <v>581</v>
@@ -77732,7 +77701,7 @@
     </row>
     <row r="663" spans="1:13">
       <c r="A663" s="90" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="B663" s="90">
         <v>582</v>
@@ -77755,7 +77724,7 @@
     </row>
     <row r="664" spans="1:13">
       <c r="A664" s="90" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="B664" s="90">
         <v>583</v>
@@ -77787,7 +77756,7 @@
     </row>
     <row r="665" spans="1:13">
       <c r="A665" s="90" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="B665" s="90">
         <v>584</v>
@@ -77822,7 +77791,7 @@
     </row>
     <row r="666" spans="1:13">
       <c r="A666" s="90" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="B666" s="90" t="s">
         <v>1957</v>
@@ -77836,7 +77805,7 @@
     </row>
     <row r="667" spans="1:13">
       <c r="A667" s="90" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="B667" s="90">
         <v>585</v>
@@ -77862,7 +77831,7 @@
     </row>
     <row r="668" spans="1:13">
       <c r="A668" s="90" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="B668" s="90">
         <v>586</v>
@@ -77891,7 +77860,7 @@
     </row>
     <row r="669" spans="1:13">
       <c r="A669" s="90" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="B669" s="90" t="s">
         <v>1958</v>
@@ -77905,7 +77874,7 @@
     </row>
     <row r="670" spans="1:13">
       <c r="A670" s="90" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="B670" s="90">
         <v>587</v>
@@ -77922,7 +77891,7 @@
     </row>
     <row r="671" spans="1:13">
       <c r="A671" s="90" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B671" s="90">
         <v>588</v>
@@ -77939,7 +77908,7 @@
     </row>
     <row r="672" spans="1:13">
       <c r="A672" s="90" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="B672" s="90">
         <v>589</v>
@@ -77956,7 +77925,7 @@
     </row>
     <row r="673" spans="1:12">
       <c r="A673" s="90" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B673" s="90" t="s">
         <v>1959</v>
@@ -77970,7 +77939,7 @@
     </row>
     <row r="674" spans="1:12">
       <c r="A674" s="90" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="B674" s="90">
         <v>590</v>
@@ -77999,7 +77968,7 @@
     </row>
     <row r="675" spans="1:12">
       <c r="A675" s="90" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="B675" s="90">
         <v>591</v>
@@ -78016,7 +77985,7 @@
     </row>
     <row r="676" spans="1:12">
       <c r="A676" s="90" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="B676" s="90" t="s">
         <v>1960</v>
@@ -78030,7 +77999,7 @@
     </row>
     <row r="677" spans="1:12">
       <c r="A677" s="90" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="B677" s="90">
         <v>592</v>
@@ -78050,7 +78019,7 @@
     </row>
     <row r="678" spans="1:12">
       <c r="A678" s="90" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="B678" s="90">
         <v>593</v>
@@ -78067,7 +78036,7 @@
     </row>
     <row r="679" spans="1:12">
       <c r="A679" s="90" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="B679" s="90">
         <v>594</v>
@@ -78087,7 +78056,7 @@
     </row>
     <row r="680" spans="1:12">
       <c r="A680" s="90" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="B680" s="90">
         <v>595</v>
@@ -78104,7 +78073,7 @@
     </row>
     <row r="681" spans="1:12">
       <c r="A681" s="90" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="B681" s="90">
         <v>596</v>
@@ -78133,7 +78102,7 @@
     </row>
     <row r="682" spans="1:12">
       <c r="A682" s="90" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="B682" s="90">
         <v>597</v>
@@ -78168,7 +78137,7 @@
     </row>
     <row r="683" spans="1:12">
       <c r="A683" s="90" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="B683" s="90">
         <v>598</v>
@@ -78185,7 +78154,7 @@
     </row>
     <row r="684" spans="1:12">
       <c r="A684" s="90" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B684" s="90">
         <v>599</v>
@@ -78205,7 +78174,7 @@
     </row>
     <row r="685" spans="1:12">
       <c r="A685" s="90" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="B685" s="90">
         <v>600</v>
@@ -78222,7 +78191,7 @@
     </row>
     <row r="686" spans="1:12">
       <c r="A686" s="90" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="B686" s="90">
         <v>601</v>
@@ -78239,7 +78208,7 @@
     </row>
     <row r="687" spans="1:12">
       <c r="A687" s="90" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="B687" s="90">
         <v>602</v>
@@ -78256,7 +78225,7 @@
     </row>
     <row r="688" spans="1:12">
       <c r="A688" s="90" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="B688" s="90">
         <v>603</v>
@@ -78273,7 +78242,7 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" s="90" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="B689" s="90">
         <v>604</v>
@@ -78293,7 +78262,7 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="90" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="B690" s="90">
         <v>605</v>
@@ -78310,7 +78279,7 @@
     </row>
     <row r="691" spans="1:7">
       <c r="A691" s="90" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B691" s="90">
         <v>606</v>
@@ -78330,7 +78299,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="A692" s="90" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="B692" s="90">
         <v>607</v>
@@ -78347,7 +78316,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="A693" s="90" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="B693" s="90">
         <v>608</v>
@@ -78367,7 +78336,7 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" s="90" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="B694" s="90" t="s">
         <v>1961</v>
@@ -78381,7 +78350,7 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" s="90" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="B695" s="90">
         <v>609</v>
@@ -78398,7 +78367,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="A696" s="90" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="B696" s="90">
         <v>610</v>
@@ -78415,7 +78384,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="A697" s="90" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B697" s="90" t="s">
         <v>1962</v>
@@ -78429,7 +78398,7 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="90" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="B698" s="90">
         <v>611</v>
@@ -78446,7 +78415,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="A699" s="90" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="B699" s="90">
         <v>612</v>
@@ -78463,7 +78432,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700" s="90" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="B700" s="90" t="s">
         <v>1963</v>
@@ -78477,7 +78446,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="A701" s="90" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="B701" s="90">
         <v>613</v>
@@ -78494,7 +78463,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="A702" s="90" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="B702" s="90">
         <v>614</v>
@@ -78511,7 +78480,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="A703" s="90" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B703" s="90">
         <v>615</v>
@@ -78528,7 +78497,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="A704" s="90" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="B704" s="90">
         <v>616</v>
@@ -78545,7 +78514,7 @@
     </row>
     <row r="705" spans="1:12">
       <c r="A705" s="90" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="B705" s="90">
         <v>617</v>
@@ -78562,7 +78531,7 @@
     </row>
     <row r="706" spans="1:12">
       <c r="A706" s="90" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="B706" s="90">
         <v>618</v>
@@ -78579,7 +78548,7 @@
     </row>
     <row r="707" spans="1:12">
       <c r="A707" s="90" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="B707" s="90">
         <v>619</v>
@@ -78599,7 +78568,7 @@
     </row>
     <row r="708" spans="1:12">
       <c r="A708" s="90" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="B708" s="90">
         <v>620</v>
@@ -78616,7 +78585,7 @@
     </row>
     <row r="709" spans="1:12">
       <c r="A709" s="90" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="B709" s="90">
         <v>621</v>
@@ -78636,7 +78605,7 @@
     </row>
     <row r="710" spans="1:12">
       <c r="A710" s="90" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="B710" s="90">
         <v>622</v>
@@ -78653,7 +78622,7 @@
     </row>
     <row r="711" spans="1:12">
       <c r="A711" s="90" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="B711" s="90">
         <v>623</v>
@@ -78673,7 +78642,7 @@
     </row>
     <row r="712" spans="1:12">
       <c r="A712" s="90" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="B712" s="90">
         <v>624</v>
@@ -78710,7 +78679,7 @@
     </row>
     <row r="714" spans="1:12">
       <c r="A714" s="90" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="B714" s="90">
         <v>626</v>
@@ -78727,7 +78696,7 @@
     </row>
     <row r="715" spans="1:12">
       <c r="A715" s="90" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B715" s="90">
         <v>627</v>
@@ -78744,7 +78713,7 @@
     </row>
     <row r="716" spans="1:12">
       <c r="A716" s="90" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="B716" s="90">
         <v>628</v>
@@ -78764,7 +78733,7 @@
     </row>
     <row r="717" spans="1:12">
       <c r="A717" s="90" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="B717" s="90">
         <v>629</v>
@@ -78790,7 +78759,7 @@
     </row>
     <row r="718" spans="1:12">
       <c r="A718" s="90" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="B718" s="90">
         <v>630</v>
@@ -78807,7 +78776,7 @@
     </row>
     <row r="719" spans="1:12">
       <c r="A719" s="90" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="B719" s="90">
         <v>631</v>
@@ -78827,7 +78796,7 @@
     </row>
     <row r="720" spans="1:12">
       <c r="A720" s="90" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B720" s="90">
         <v>632</v>
@@ -78844,7 +78813,7 @@
     </row>
     <row r="721" spans="1:13">
       <c r="A721" s="90" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="B721" s="90" t="s">
         <v>1964</v>
@@ -78858,7 +78827,7 @@
     </row>
     <row r="722" spans="1:13">
       <c r="A722" s="90" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="B722" s="90">
         <v>633</v>
@@ -78878,7 +78847,7 @@
     </row>
     <row r="723" spans="1:13">
       <c r="A723" s="90" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="B723" s="90">
         <v>634</v>
@@ -78907,7 +78876,7 @@
     </row>
     <row r="724" spans="1:13">
       <c r="A724" s="90" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="B724" s="90">
         <v>635</v>
@@ -78936,7 +78905,7 @@
     </row>
     <row r="725" spans="1:13">
       <c r="A725" s="90" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="B725" s="90">
         <v>636</v>
@@ -78953,7 +78922,7 @@
     </row>
     <row r="726" spans="1:13">
       <c r="A726" s="90" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="B726" s="90">
         <v>637</v>
@@ -78973,7 +78942,7 @@
     </row>
     <row r="727" spans="1:13">
       <c r="A727" s="90" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="B727" s="90">
         <v>638</v>
@@ -79005,7 +78974,7 @@
     </row>
     <row r="728" spans="1:13">
       <c r="A728" s="90" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="B728" s="90">
         <v>639</v>
@@ -79022,7 +78991,7 @@
     </row>
     <row r="729" spans="1:13">
       <c r="A729" s="90" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="B729" s="90">
         <v>640</v>
@@ -79045,7 +79014,7 @@
     </row>
     <row r="730" spans="1:13">
       <c r="A730" s="90" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="B730" s="90">
         <v>641</v>
@@ -79062,7 +79031,7 @@
     </row>
     <row r="731" spans="1:13">
       <c r="A731" s="90" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B731" s="90">
         <v>642</v>
@@ -79082,7 +79051,7 @@
     </row>
     <row r="732" spans="1:13">
       <c r="A732" s="90" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B732" s="90">
         <v>643</v>
@@ -79102,7 +79071,7 @@
     </row>
     <row r="733" spans="1:13">
       <c r="A733" s="90" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="B733" s="90">
         <v>644</v>
@@ -79125,7 +79094,7 @@
     </row>
     <row r="734" spans="1:13">
       <c r="A734" s="90" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B734" s="90">
         <v>645</v>
@@ -79145,7 +79114,7 @@
     </row>
     <row r="735" spans="1:13">
       <c r="A735" s="90" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="C735" s="90" t="s">
         <v>2168</v>
@@ -79159,7 +79128,7 @@
     </row>
     <row r="736" spans="1:13">
       <c r="A736" s="90" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="B736" s="90" t="s">
         <v>1965</v>
@@ -79173,7 +79142,7 @@
     </row>
     <row r="737" spans="1:12">
       <c r="A737" s="90" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="B737" s="90">
         <v>646</v>
@@ -79190,7 +79159,7 @@
     </row>
     <row r="738" spans="1:12">
       <c r="A738" s="90" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="B738" s="90">
         <v>647</v>
@@ -79219,7 +79188,7 @@
     </row>
     <row r="739" spans="1:12">
       <c r="A739" s="90" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B739" s="90">
         <v>648</v>
@@ -79254,7 +79223,7 @@
     </row>
     <row r="740" spans="1:12">
       <c r="A740" s="90" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="B740" s="90" t="s">
         <v>1966</v>
@@ -79268,7 +79237,7 @@
     </row>
     <row r="741" spans="1:12">
       <c r="A741" s="90" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="B741" s="90">
         <v>649</v>
@@ -79291,7 +79260,7 @@
     </row>
     <row r="742" spans="1:12">
       <c r="A742" s="90" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="B742" s="90">
         <v>650</v>
@@ -79314,7 +79283,7 @@
     </row>
     <row r="743" spans="1:12">
       <c r="A743" s="90" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="B743" s="90">
         <v>651</v>
@@ -79349,7 +79318,7 @@
     </row>
     <row r="744" spans="1:12">
       <c r="A744" s="90" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="B744" s="90">
         <v>652</v>
@@ -79384,7 +79353,7 @@
     </row>
     <row r="745" spans="1:12">
       <c r="A745" s="90" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="B745" s="90">
         <v>653</v>
@@ -79413,10 +79382,10 @@
     </row>
     <row r="746" spans="1:12">
       <c r="A746" s="90" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="C746" s="90" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="D746" s="90">
         <v>745</v>
@@ -79427,10 +79396,10 @@
     </row>
     <row r="747" spans="1:12">
       <c r="A747" s="90" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="C747" s="90" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="D747" s="90">
         <v>746</v>
@@ -79441,16 +79410,16 @@
     </row>
     <row r="748" spans="1:12">
       <c r="A748" s="90" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="C748" s="90" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="D748" s="90">
         <v>747</v>
       </c>
       <c r="E748" s="90" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="G748" s="90" t="s">
         <v>3365</v>
@@ -79461,10 +79430,10 @@
     </row>
     <row r="749" spans="1:12">
       <c r="A749" s="90" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="C749" s="90" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="D749" s="90">
         <v>748</v>
@@ -79475,10 +79444,10 @@
     </row>
     <row r="750" spans="1:12">
       <c r="A750" s="90" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="C750" s="90" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="D750" s="90">
         <v>749</v>
@@ -79489,7 +79458,7 @@
     </row>
     <row r="751" spans="1:12">
       <c r="A751" s="90" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="D751" s="90">
         <v>750</v>
@@ -79506,13 +79475,13 @@
     </row>
     <row r="752" spans="1:12">
       <c r="A752" s="90" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="D752" s="90">
         <v>751</v>
       </c>
       <c r="E752" s="90" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
       <c r="G752" s="90" t="s">
         <v>3365</v>
@@ -79523,13 +79492,13 @@
     </row>
     <row r="753" spans="1:9">
       <c r="A753" s="90" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="D753" s="90">
         <v>752</v>
       </c>
       <c r="E753" s="90" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
       <c r="G753" s="90" t="s">
         <v>3365</v>
@@ -79540,7 +79509,7 @@
     </row>
     <row r="754" spans="1:9">
       <c r="A754" s="90" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="D754" s="90">
         <v>753</v>
@@ -79551,13 +79520,13 @@
     </row>
     <row r="755" spans="1:9">
       <c r="A755" s="90" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="D755" s="90">
         <v>754</v>
       </c>
       <c r="E755" s="90" t="s">
-        <v>4286</v>
+        <v>4284</v>
       </c>
       <c r="G755" s="90" t="s">
         <v>3365</v>
@@ -79568,13 +79537,13 @@
     </row>
     <row r="756" spans="1:9">
       <c r="A756" s="90" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="D756" s="90">
         <v>755</v>
       </c>
       <c r="E756" s="90" t="s">
-        <v>4287</v>
+        <v>4285</v>
       </c>
       <c r="G756" s="90" t="s">
         <v>3365</v>
@@ -79585,10 +79554,10 @@
     </row>
     <row r="757" spans="1:9">
       <c r="A757" s="90" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="C757" s="90" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
       <c r="D757" s="90">
         <v>756</v>
@@ -79599,7 +79568,7 @@
     </row>
     <row r="758" spans="1:9">
       <c r="A758" s="90" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="C758" s="90" t="s">
         <v>2216</v>
@@ -79613,10 +79582,10 @@
     </row>
     <row r="759" spans="1:9">
       <c r="A759" s="90" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="C759" s="90" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="D759" s="90">
         <v>758</v>
@@ -79627,7 +79596,7 @@
     </row>
     <row r="760" spans="1:9">
       <c r="A760" s="90" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="C760" s="90" t="s">
         <v>2230</v>
@@ -79647,10 +79616,10 @@
     </row>
     <row r="761" spans="1:9">
       <c r="A761" s="90" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="C761" s="90" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="D761" s="90">
         <v>760</v>
@@ -79661,10 +79630,10 @@
     </row>
     <row r="762" spans="1:9">
       <c r="A762" s="90" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="C762" s="90" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
       <c r="D762" s="90">
         <v>761</v>
@@ -79675,10 +79644,10 @@
     </row>
     <row r="763" spans="1:9">
       <c r="A763" s="90" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="C763" s="90" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
       <c r="D763" s="90">
         <v>762</v>
@@ -79695,7 +79664,7 @@
     </row>
     <row r="764" spans="1:9">
       <c r="A764" s="90" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="C764" s="90" t="s">
         <v>2180</v>
@@ -79709,7 +79678,7 @@
     </row>
     <row r="765" spans="1:9">
       <c r="A765" s="90" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="C765" s="90" t="s">
         <v>2239</v>
@@ -79723,10 +79692,10 @@
     </row>
     <row r="766" spans="1:9">
       <c r="A766" s="90" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="C766" s="90" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
       <c r="D766" s="90">
         <v>765</v>
@@ -79737,7 +79706,7 @@
     </row>
     <row r="767" spans="1:9">
       <c r="A767" s="90" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="C767" s="90" t="s">
         <v>2181</v>
@@ -79751,10 +79720,10 @@
     </row>
     <row r="768" spans="1:9">
       <c r="A768" s="90" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="C768" s="90" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="D768" s="90">
         <v>767</v>
@@ -79765,7 +79734,7 @@
     </row>
     <row r="769" spans="1:9">
       <c r="A769" s="90" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="C769" s="90" t="s">
         <v>2183</v>
@@ -79779,7 +79748,7 @@
     </row>
     <row r="770" spans="1:9">
       <c r="A770" s="90" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="C770" s="90" t="s">
         <v>2213</v>
@@ -79793,7 +79762,7 @@
     </row>
     <row r="771" spans="1:9">
       <c r="A771" s="90" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="C771" s="90" t="s">
         <v>2232</v>
@@ -79807,10 +79776,10 @@
     </row>
     <row r="772" spans="1:9">
       <c r="A772" s="90" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="C772" s="90" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="D772" s="90">
         <v>771</v>
@@ -79821,7 +79790,7 @@
     </row>
     <row r="773" spans="1:9">
       <c r="A773" s="90" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="C773" s="90" t="s">
         <v>2185</v>
@@ -79835,10 +79804,10 @@
     </row>
     <row r="774" spans="1:9">
       <c r="A774" s="90" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="C774" s="90" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
       <c r="D774" s="90">
         <v>773</v>
@@ -79849,10 +79818,10 @@
     </row>
     <row r="775" spans="1:9">
       <c r="A775" s="90" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="C775" s="90" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="D775" s="90">
         <v>774</v>
@@ -79863,7 +79832,7 @@
     </row>
     <row r="776" spans="1:9">
       <c r="A776" s="90" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="C776" s="90" t="s">
         <v>2234</v>
@@ -79877,10 +79846,10 @@
     </row>
     <row r="777" spans="1:9">
       <c r="A777" s="90" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="C777" s="90" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
       <c r="D777" s="90">
         <v>776</v>
@@ -79891,10 +79860,10 @@
     </row>
     <row r="778" spans="1:9">
       <c r="A778" s="90" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="C778" s="90" t="s">
-        <v>4268</v>
+        <v>4266</v>
       </c>
       <c r="D778" s="90">
         <v>777</v>
@@ -79905,10 +79874,10 @@
     </row>
     <row r="779" spans="1:9">
       <c r="A779" s="90" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="C779" s="90" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="D779" s="90">
         <v>778</v>
@@ -79919,10 +79888,10 @@
     </row>
     <row r="780" spans="1:9">
       <c r="A780" s="90" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="C780" s="90" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
       <c r="D780" s="90">
         <v>779</v>
@@ -79939,10 +79908,10 @@
     </row>
     <row r="781" spans="1:9">
       <c r="A781" s="90" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="C781" s="90" t="s">
-        <v>4266</v>
+        <v>4264</v>
       </c>
       <c r="D781" s="90">
         <v>780</v>
@@ -79959,10 +79928,10 @@
     </row>
     <row r="782" spans="1:9">
       <c r="A782" s="90" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="C782" s="90" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
       <c r="D782" s="90">
         <v>781</v>
@@ -79973,24 +79942,24 @@
     </row>
     <row r="783" spans="1:9">
       <c r="A783" s="90" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="C783" s="90" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
       <c r="D783" s="90">
         <v>782</v>
       </c>
       <c r="E783" s="90" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="784" spans="1:9">
       <c r="A784" s="90" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="C784" s="90" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
       <c r="D784" s="90">
         <v>783</v>
@@ -80010,7 +79979,7 @@
     </row>
     <row r="785" spans="1:12">
       <c r="A785" s="90" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="C785" s="90" t="s">
         <v>1599</v>
@@ -80030,10 +79999,10 @@
     </row>
     <row r="786" spans="1:12">
       <c r="A786" s="90" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="C786" s="90" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="D786" s="90">
         <v>785</v>
@@ -80044,7 +80013,7 @@
     </row>
     <row r="787" spans="1:12">
       <c r="A787" s="90" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="C787" s="90" t="s">
         <v>1677</v>
@@ -80064,10 +80033,10 @@
     </row>
     <row r="788" spans="1:12">
       <c r="A788" s="90" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="C788" s="90" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="D788" s="90">
         <v>787</v>
@@ -80095,11 +80064,11 @@
       </c>
     </row>
     <row r="789" spans="1:12">
-      <c r="A789" s="90" t="s">
-        <v>4159</v>
+      <c r="A789" s="92" t="s">
+        <v>4287</v>
       </c>
       <c r="C789" s="90" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="D789" s="90">
         <v>788</v>
@@ -80110,7 +80079,7 @@
     </row>
     <row r="790" spans="1:12">
       <c r="A790" s="90" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="C790" s="90" t="s">
         <v>1579</v>
@@ -80124,7 +80093,7 @@
     </row>
     <row r="791" spans="1:12">
       <c r="A791" s="90" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="C791" s="90" t="s">
         <v>1607</v>
@@ -80144,7 +80113,7 @@
     </row>
     <row r="792" spans="1:12">
       <c r="A792" s="90" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="C792" s="90" t="s">
         <v>1673</v>
@@ -80164,7 +80133,7 @@
     </row>
     <row r="793" spans="1:12">
       <c r="A793" s="90" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="C793" s="90" t="s">
         <v>1636</v>
@@ -80184,7 +80153,7 @@
     </row>
     <row r="794" spans="1:12">
       <c r="A794" s="90" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="C794" s="90" t="s">
         <v>1569</v>
@@ -80198,7 +80167,7 @@
     </row>
     <row r="795" spans="1:12">
       <c r="A795" s="90" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="C795" s="90" t="s">
         <v>1582</v>
@@ -80212,16 +80181,16 @@
     </row>
     <row r="796" spans="1:12">
       <c r="A796" s="90" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="C796" s="90" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="D796" s="90">
         <v>795</v>
       </c>
       <c r="E796" s="90" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="G796" s="90" t="s">
         <v>3365</v>
@@ -80232,10 +80201,10 @@
     </row>
     <row r="797" spans="1:12">
       <c r="A797" s="90" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
       <c r="C797" s="90" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
       <c r="D797" s="90">
         <v>796</v>
@@ -80252,10 +80221,10 @@
     </row>
     <row r="798" spans="1:12">
       <c r="A798" s="90" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
       <c r="C798" s="90" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="D798" s="90">
         <v>797</v>
@@ -80275,7 +80244,7 @@
     </row>
     <row r="799" spans="1:12">
       <c r="A799" s="90" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
       <c r="C799" s="90" t="s">
         <v>1663</v>
@@ -80295,7 +80264,7 @@
     </row>
     <row r="800" spans="1:12">
       <c r="A800" s="90" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
       <c r="C800" s="90" t="s">
         <v>1630</v>
@@ -80315,7 +80284,7 @@
     </row>
     <row r="801" spans="1:9">
       <c r="A801" s="90" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
       <c r="C801" s="90" t="s">
         <v>1613</v>
@@ -80335,7 +80304,7 @@
     </row>
     <row r="802" spans="1:9">
       <c r="A802" s="90" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="C802" s="90" t="s">
         <v>1653</v>
@@ -80355,7 +80324,7 @@
     </row>
     <row r="803" spans="1:9">
       <c r="A803" s="90" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="C803" s="90" t="s">
         <v>1621</v>
@@ -80375,7 +80344,7 @@
     </row>
     <row r="804" spans="1:9">
       <c r="A804" s="90" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
       <c r="C804" s="90" t="s">
         <v>1626</v>
@@ -80395,10 +80364,10 @@
     </row>
     <row r="805" spans="1:9">
       <c r="A805" s="90" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="C805" s="90" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="D805" s="90">
         <v>804</v>
@@ -80409,7 +80378,7 @@
     </row>
     <row r="806" spans="1:9">
       <c r="A806" s="90" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
       <c r="C806" s="90" t="s">
         <v>1683</v>
@@ -80429,7 +80398,7 @@
     </row>
     <row r="807" spans="1:9">
       <c r="A807" s="90" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="C807" s="90" t="s">
         <v>1617</v>
@@ -80449,10 +80418,10 @@
     </row>
     <row r="808" spans="1:9">
       <c r="A808" s="90" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
       <c r="C808" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D808" s="90">
         <v>807</v>
@@ -80463,7 +80432,7 @@
     </row>
     <row r="809" spans="1:9">
       <c r="A809" s="90" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
       <c r="C809" s="90" t="s">
         <v>1171</v>
@@ -80477,7 +80446,7 @@
     </row>
     <row r="810" spans="1:9">
       <c r="A810" s="90" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="C810" s="90" t="s">
         <v>1573</v>
@@ -80491,10 +80460,10 @@
     </row>
     <row r="811" spans="1:9">
       <c r="A811" s="90" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
       <c r="C811" s="90" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
       <c r="D811" s="90">
         <v>810</v>
@@ -80505,7 +80474,7 @@
     </row>
     <row r="812" spans="1:9">
       <c r="A812" s="90" t="s">
-        <v>4182</v>
+        <v>4180</v>
       </c>
       <c r="C812" s="90" t="s">
         <v>1593</v>
@@ -80525,10 +80494,10 @@
     </row>
     <row r="813" spans="1:9">
       <c r="A813" s="90" t="s">
-        <v>4183</v>
+        <v>4181</v>
       </c>
       <c r="C813" s="90" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
       <c r="D813" s="90">
         <v>812</v>
@@ -80545,24 +80514,24 @@
     </row>
     <row r="814" spans="1:9">
       <c r="A814" s="90" t="s">
-        <v>4184</v>
+        <v>4182</v>
       </c>
       <c r="C814" s="90" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="D814" s="90">
         <v>813</v>
       </c>
       <c r="E814" s="90" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="815" spans="1:9">
       <c r="A815" s="90" t="s">
-        <v>4185</v>
+        <v>4183</v>
       </c>
       <c r="C815" s="90" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="D815" s="90">
         <v>814</v>
@@ -80579,10 +80548,10 @@
     </row>
     <row r="816" spans="1:9">
       <c r="A816" s="90" t="s">
-        <v>4186</v>
+        <v>4184</v>
       </c>
       <c r="C816" s="90" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
       <c r="D816" s="90">
         <v>815</v>
@@ -80593,10 +80562,10 @@
     </row>
     <row r="817" spans="1:12">
       <c r="A817" s="90" t="s">
-        <v>4187</v>
+        <v>4185</v>
       </c>
       <c r="C817" s="90" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
       <c r="D817" s="90">
         <v>816</v>
@@ -80607,10 +80576,10 @@
     </row>
     <row r="818" spans="1:12">
       <c r="A818" s="90" t="s">
-        <v>4188</v>
+        <v>4186</v>
       </c>
       <c r="C818" s="90" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="D818" s="90">
         <v>817</v>
@@ -80621,7 +80590,7 @@
     </row>
     <row r="819" spans="1:12">
       <c r="A819" s="90" t="s">
-        <v>4189</v>
+        <v>4187</v>
       </c>
       <c r="C819" s="90" t="s">
         <v>1657</v>
@@ -80630,7 +80599,7 @@
         <v>818</v>
       </c>
       <c r="E819" s="90" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="G819" s="90" t="s">
         <v>3365</v>
@@ -80641,10 +80610,10 @@
     </row>
     <row r="820" spans="1:12">
       <c r="A820" s="90" t="s">
-        <v>4190</v>
+        <v>4188</v>
       </c>
       <c r="C820" s="90" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="D820" s="90">
         <v>819</v>
@@ -80661,10 +80630,10 @@
     </row>
     <row r="821" spans="1:12">
       <c r="A821" s="90" t="s">
-        <v>4191</v>
+        <v>4189</v>
       </c>
       <c r="C821" s="90" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
       <c r="D821" s="90">
         <v>820</v>
@@ -80681,7 +80650,7 @@
     </row>
     <row r="822" spans="1:12">
       <c r="A822" s="90" t="s">
-        <v>4192</v>
+        <v>4190</v>
       </c>
       <c r="C822" s="90" t="s">
         <v>1666</v>
@@ -80701,16 +80670,16 @@
     </row>
     <row r="823" spans="1:12">
       <c r="A823" s="90" t="s">
-        <v>4193</v>
+        <v>4191</v>
       </c>
       <c r="C823" s="90" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="D823" s="90">
         <v>822</v>
       </c>
       <c r="E823" s="90" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
       <c r="J823" s="90" t="s">
         <v>3373</v>
@@ -80721,7 +80690,7 @@
     </row>
     <row r="824" spans="1:12">
       <c r="A824" s="90" t="s">
-        <v>4194</v>
+        <v>4192</v>
       </c>
       <c r="C824" s="90" t="s">
         <v>1647</v>
@@ -80741,7 +80710,7 @@
     </row>
     <row r="825" spans="1:12">
       <c r="A825" s="90" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
       <c r="C825" s="90" t="s">
         <v>1603</v>
@@ -80761,10 +80730,10 @@
     </row>
     <row r="826" spans="1:12">
       <c r="A826" s="90" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
       <c r="C826" s="90" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
       <c r="D826" s="90">
         <v>825</v>
@@ -80781,10 +80750,10 @@
     </row>
     <row r="827" spans="1:12">
       <c r="A827" s="90" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
       <c r="C827" s="90" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="D827" s="90">
         <v>826</v>
@@ -80795,7 +80764,7 @@
     </row>
     <row r="828" spans="1:12">
       <c r="A828" s="90" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
       <c r="C828" s="90" t="s">
         <v>1584</v>
@@ -80815,10 +80784,10 @@
     </row>
     <row r="829" spans="1:12">
       <c r="A829" s="90" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
       <c r="C829" s="90" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
       <c r="D829" s="90">
         <v>828</v>
@@ -80829,10 +80798,10 @@
     </row>
     <row r="830" spans="1:12">
       <c r="A830" s="90" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
       <c r="C830" s="90" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="D830" s="90">
         <v>829</v>
@@ -80843,7 +80812,7 @@
     </row>
     <row r="831" spans="1:12">
       <c r="A831" s="90" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="C831" s="90" t="s">
         <v>1586</v>
@@ -80857,10 +80826,10 @@
     </row>
     <row r="832" spans="1:12">
       <c r="A832" s="90" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="C832" s="90" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="D832" s="90">
         <v>831</v>
@@ -80877,7 +80846,7 @@
     </row>
     <row r="833" spans="1:9">
       <c r="A833" s="90" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
       <c r="C833" s="90" t="s">
         <v>1669</v>
@@ -80897,16 +80866,16 @@
     </row>
     <row r="834" spans="1:9">
       <c r="A834" s="90" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
       <c r="C834" s="90" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
       <c r="D834" s="90">
         <v>833</v>
       </c>
       <c r="E834" s="90" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
       <c r="G834" s="90" t="s">
         <v>3365</v>
@@ -80917,16 +80886,16 @@
     </row>
     <row r="835" spans="1:9">
       <c r="A835" s="90" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
       <c r="C835" s="90" t="s">
-        <v>4283</v>
+        <v>4281</v>
       </c>
       <c r="D835" s="90">
         <v>834</v>
       </c>
       <c r="E835" s="90" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
       <c r="G835" s="90" t="s">
         <v>3365</v>
@@ -80937,10 +80906,10 @@
     </row>
     <row r="836" spans="1:9">
       <c r="A836" s="90" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
       <c r="C836" s="90" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
       <c r="D836" s="90">
         <v>835</v>
@@ -80960,10 +80929,10 @@
     </row>
     <row r="837" spans="1:9">
       <c r="A837" s="90" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
       <c r="C837" s="90" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="D837" s="90">
         <v>836</v>
@@ -80980,7 +80949,7 @@
     </row>
     <row r="838" spans="1:9">
       <c r="A838" s="90" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
       <c r="C838" s="90" t="s">
         <v>1643</v>
@@ -81000,10 +80969,10 @@
     </row>
     <row r="839" spans="1:9">
       <c r="A839" s="90" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="C839" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D839" s="90">
         <v>838</v>
@@ -81014,10 +80983,10 @@
     </row>
     <row r="840" spans="1:9">
       <c r="A840" s="90" t="s">
-        <v>4210</v>
+        <v>4208</v>
       </c>
       <c r="C840" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D840" s="90">
         <v>839</v>
@@ -81028,10 +80997,10 @@
     </row>
     <row r="841" spans="1:9">
       <c r="A841" s="90" t="s">
-        <v>4211</v>
+        <v>4209</v>
       </c>
       <c r="C841" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D841" s="90">
         <v>840</v>
@@ -81042,10 +81011,10 @@
     </row>
     <row r="842" spans="1:9">
       <c r="A842" s="90" t="s">
-        <v>4212</v>
+        <v>4210</v>
       </c>
       <c r="C842" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D842" s="90">
         <v>841</v>
@@ -81056,10 +81025,10 @@
     </row>
     <row r="843" spans="1:9">
       <c r="A843" s="90" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
       <c r="C843" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D843" s="90">
         <v>842</v>
@@ -81070,10 +81039,10 @@
     </row>
     <row r="844" spans="1:9">
       <c r="A844" s="90" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
       <c r="C844" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D844" s="90">
         <v>843</v>
@@ -81084,10 +81053,10 @@
     </row>
     <row r="845" spans="1:9">
       <c r="A845" s="90" t="s">
-        <v>4215</v>
+        <v>4213</v>
       </c>
       <c r="C845" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D845" s="90">
         <v>844</v>
@@ -81098,10 +81067,10 @@
     </row>
     <row r="846" spans="1:9">
       <c r="A846" s="90" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
       <c r="C846" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D846" s="90">
         <v>845</v>
@@ -81112,10 +81081,10 @@
     </row>
     <row r="847" spans="1:9">
       <c r="A847" s="90" t="s">
-        <v>4217</v>
+        <v>4215</v>
       </c>
       <c r="C847" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D847" s="90">
         <v>846</v>
@@ -81126,10 +81095,10 @@
     </row>
     <row r="848" spans="1:9">
       <c r="A848" s="90" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C848" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D848" s="90">
         <v>847</v>
@@ -81140,10 +81109,10 @@
     </row>
     <row r="849" spans="1:6">
       <c r="A849" s="90" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
       <c r="C849" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D849" s="90">
         <v>848</v>
@@ -81154,10 +81123,10 @@
     </row>
     <row r="850" spans="1:6">
       <c r="A850" s="90" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="C850" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D850" s="90">
         <v>849</v>
@@ -81168,10 +81137,10 @@
     </row>
     <row r="851" spans="1:6">
       <c r="A851" s="90" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
       <c r="C851" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D851" s="90">
         <v>850</v>
@@ -81182,10 +81151,10 @@
     </row>
     <row r="852" spans="1:6">
       <c r="A852" s="90" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
       <c r="C852" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D852" s="90">
         <v>851</v>
@@ -81196,10 +81165,10 @@
     </row>
     <row r="853" spans="1:6">
       <c r="A853" s="90" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="C853" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D853" s="90">
         <v>852</v>
@@ -81210,10 +81179,10 @@
     </row>
     <row r="854" spans="1:6">
       <c r="A854" s="90" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="C854" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D854" s="90">
         <v>853</v>
@@ -81224,10 +81193,10 @@
     </row>
     <row r="855" spans="1:6">
       <c r="A855" s="90" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="C855" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D855" s="90">
         <v>854</v>
@@ -81241,7 +81210,7 @@
         <v>2171</v>
       </c>
       <c r="C856" s="90" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="D856" s="90">
         <v>855</v>
